--- a/Лаба 3/Таблицы/Результаты.xlsx
+++ b/Лаба 3/Таблицы/Результаты.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="35">
   <si>
     <t>Нормальное</t>
   </si>
@@ -94,6 +94,33 @@
   </si>
   <si>
     <t>a2 (model_3)</t>
+  </si>
+  <si>
+    <t>Хи-квадарат (группирование без оцениевание)</t>
+  </si>
+  <si>
+    <t>Хи-квадарат (группирование с оцениеванием)</t>
+  </si>
+  <si>
+    <t>Имя выборки</t>
+  </si>
+  <si>
+    <t>Колмогорова</t>
+  </si>
+  <si>
+    <t>Хи-квадрат</t>
+  </si>
+  <si>
+    <t>Гамма (4.7475, 0.1210, 0.2948) (model_1)</t>
+  </si>
+  <si>
+    <t>Sl-Джонсона (0.1623, 1.1289, 0.1302, 0.0085) (model_2)</t>
+  </si>
+  <si>
+    <t>Бета 3-го рода (3.7351, 2.5510, 16.6547, 8.2133, 0.0894) (model_3)</t>
+  </si>
+  <si>
+    <t>Бета 2-го рода (2.4722, 9.7451, 3.9789, -0.0043) (model_4)</t>
   </si>
 </sst>
 </file>
@@ -101,7 +128,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -183,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -194,7 +221,7 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -203,10 +230,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -509,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:I54"/>
+  <dimension ref="A3:V54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:I52"/>
+    <sheetView tabSelected="1" topLeftCell="O20" workbookViewId="0">
+      <selection activeCell="X26" sqref="X26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -520,30 +575,32 @@
     <col min="1" max="1" width="27.140625" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
     <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.42578125" customWidth="1"/>
+    <col min="14" max="14" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2" t="s">
+      <c r="E3" s="18"/>
+      <c r="F3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2" t="s">
+      <c r="G3" s="18"/>
+      <c r="H3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="I3" s="18"/>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -572,7 +629,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -601,7 +658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -630,7 +687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -659,28 +716,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2" t="s">
+      <c r="C11" s="18"/>
+      <c r="D11" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
+      <c r="E11" s="18"/>
+      <c r="F11" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2" t="s">
+      <c r="G11" s="18"/>
+      <c r="H11" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="I11" s="18"/>
+      <c r="J11" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="18"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -708,8 +774,19 @@
       <c r="I12" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -737,8 +814,19 @@
       <c r="I13" s="1">
         <v>0.40333999999999998</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13" s="2">
+        <v>13.975999</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0.234324</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -766,8 +854,19 @@
       <c r="I14" s="3">
         <v>6.8962774198189699E-31</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" s="2">
+        <v>60663.849141999999</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="11"/>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -778,28 +877,28 @@
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:17">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2" t="s">
+      <c r="C16" s="18"/>
+      <c r="D16" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2" t="s">
+      <c r="E16" s="18"/>
+      <c r="F16" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2" t="s">
+      <c r="G16" s="18"/>
+      <c r="H16" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="I16" s="18"/>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
@@ -828,7 +927,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:22">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
@@ -857,28 +956,82 @@
         <v>0.92300000000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="20" spans="1:22">
+      <c r="M20" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="N20" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="O20" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="R20" s="16"/>
+      <c r="S20" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="T20" s="16"/>
+      <c r="U20" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="V20" s="16"/>
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2" t="s">
+      <c r="C21" s="18"/>
+      <c r="D21" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2" t="s">
+      <c r="E21" s="18"/>
+      <c r="F21" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="G21" s="18"/>
+      <c r="H21" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="K21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="P21" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q21" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="R21" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="S21" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="T21" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="U21" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="V21" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22" s="1" t="s">
         <v>9</v>
       </c>
@@ -906,8 +1059,44 @@
       <c r="I22" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="J22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="N22" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="O22" s="13">
+        <v>0.65256000000000003</v>
+      </c>
+      <c r="P22" s="13">
+        <v>0.78803000000000001</v>
+      </c>
+      <c r="Q22" s="13">
+        <v>8.1712999999999994E-2</v>
+      </c>
+      <c r="R22" s="13">
+        <v>0.68200300000000003</v>
+      </c>
+      <c r="S22" s="13">
+        <v>0.52079299999999995</v>
+      </c>
+      <c r="T22" s="13">
+        <v>0.72568999999999995</v>
+      </c>
+      <c r="U22" s="13">
+        <v>10.393999936</v>
+      </c>
+      <c r="V22" s="13">
+        <v>0.73284700000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23" s="1" t="s">
         <v>15</v>
       </c>
@@ -935,8 +1124,44 @@
       <c r="I23" s="1">
         <v>0.78100000000000003</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23" s="2">
+        <v>13.383010000000001</v>
+      </c>
+      <c r="K23" s="2">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="M23" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="O23" s="13">
+        <v>1.2648133020000001</v>
+      </c>
+      <c r="P23" s="13">
+        <v>8.1559199999999998E-2</v>
+      </c>
+      <c r="Q23" s="13">
+        <v>0.40392539</v>
+      </c>
+      <c r="R23" s="13">
+        <v>7.0544599999999999E-2</v>
+      </c>
+      <c r="S23" s="13">
+        <v>3.3216304999999999</v>
+      </c>
+      <c r="T23" s="13">
+        <v>1.8844900000000001E-2</v>
+      </c>
+      <c r="U23" s="13">
+        <v>21.716698399999999</v>
+      </c>
+      <c r="V23" s="13">
+        <v>8.4625915999999995E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
@@ -964,8 +1189,44 @@
       <c r="I24" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24" s="2">
+        <v>48.403238999999999</v>
+      </c>
+      <c r="K24" s="2">
+        <v>0</v>
+      </c>
+      <c r="M24" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="N24" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="O24" s="13">
+        <v>0.76855810000000002</v>
+      </c>
+      <c r="P24" s="13">
+        <v>0.59603510000000004</v>
+      </c>
+      <c r="Q24" s="13">
+        <v>8.8374999999999995E-2</v>
+      </c>
+      <c r="R24" s="13">
+        <v>0.64489879999999999</v>
+      </c>
+      <c r="S24" s="13">
+        <v>0.56653629000000005</v>
+      </c>
+      <c r="T24" s="13">
+        <v>0.68017919999999998</v>
+      </c>
+      <c r="U24" s="13">
+        <v>14.0252631</v>
+      </c>
+      <c r="V24" s="13">
+        <v>0.44779999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
       <c r="A25" s="1" t="s">
         <v>17</v>
       </c>
@@ -993,8 +1254,44 @@
       <c r="I25" s="1">
         <v>0.496</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="J25" s="2">
+        <v>12.45154</v>
+      </c>
+      <c r="K25" s="2">
+        <v>0.496</v>
+      </c>
+      <c r="M25" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="N25" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="O25" s="13">
+        <v>0.48518576000000002</v>
+      </c>
+      <c r="P25" s="13">
+        <v>0.9726378</v>
+      </c>
+      <c r="Q25" s="13">
+        <v>3.26906E-2</v>
+      </c>
+      <c r="R25" s="13">
+        <v>0.96651419999999999</v>
+      </c>
+      <c r="S25" s="13">
+        <v>0.2344936</v>
+      </c>
+      <c r="T25" s="13">
+        <v>0.97797800000000001</v>
+      </c>
+      <c r="U25" s="13">
+        <v>11.349542</v>
+      </c>
+      <c r="V25" s="13">
+        <v>0.65839999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
       <c r="A26" s="1" t="s">
         <v>11</v>
       </c>
@@ -1022,8 +1319,14 @@
       <c r="I26" s="1">
         <v>0.78200000000000003</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26" s="2">
+        <v>13.383010000000001</v>
+      </c>
+      <c r="K26" s="2">
+        <v>0.78200000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
       <c r="A27" s="1" t="s">
         <v>18</v>
       </c>
@@ -1051,29 +1354,35 @@
       <c r="I27" s="1">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="J27" s="2">
+        <v>35.493949999999998</v>
+      </c>
+      <c r="K27" s="2">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
       <c r="A29" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2" t="s">
+      <c r="C29" s="18"/>
+      <c r="D29" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2" t="s">
+      <c r="E29" s="18"/>
+      <c r="F29" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2" t="s">
+      <c r="G29" s="18"/>
+      <c r="H29" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="I29" s="18"/>
+    </row>
+    <row r="30" spans="1:22">
       <c r="A30" s="1" t="s">
         <v>9</v>
       </c>
@@ -1102,7 +1411,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:22">
       <c r="A31" s="1" t="s">
         <v>17</v>
       </c>
@@ -1131,7 +1440,7 @@
         <v>0.32200000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:22">
       <c r="A32" s="1" t="s">
         <v>18</v>
       </c>
@@ -1175,22 +1484,22 @@
       <c r="A34" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2" t="s">
+      <c r="C34" s="18"/>
+      <c r="D34" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2" t="s">
+      <c r="E34" s="18"/>
+      <c r="F34" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2" t="s">
+      <c r="G34" s="18"/>
+      <c r="H34" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="I34" s="2"/>
+      <c r="I34" s="18"/>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
@@ -1283,22 +1592,22 @@
       <c r="A40" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2" t="s">
+      <c r="C40" s="18"/>
+      <c r="D40" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2" t="s">
+      <c r="E40" s="18"/>
+      <c r="F40" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2" t="s">
+      <c r="G40" s="18"/>
+      <c r="H40" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="I40" s="2"/>
+      <c r="I40" s="18"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
@@ -1446,28 +1755,28 @@
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2" t="s">
+      <c r="C48" s="18"/>
+      <c r="D48" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2" t="s">
+      <c r="E48" s="18"/>
+      <c r="F48" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2" t="s">
+      <c r="G48" s="18"/>
+      <c r="H48" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="I48" s="2"/>
+      <c r="I48" s="18"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="10"/>
+      <c r="A49" s="20"/>
       <c r="B49" s="1" t="s">
         <v>7</v>
       </c>
@@ -1639,7 +1948,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="43">
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="D40:E40"/>
@@ -1673,6 +1982,16 @@
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="J21:K21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
